--- a/medicine/Psychotrope/Roero_Arneis_spumante/Roero_Arneis_spumante.xlsx
+++ b/medicine/Psychotrope/Roero_Arneis_spumante/Roero_Arneis_spumante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Roero Arneis spumante est un vin effervescent italien de la région Piémont dont les appellations sont dotés d'une appellation DOCG depuis le 15 juillet 2004. Seuls ont droit à la DOCG les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Cuneo dans les communes de Canale, Corneliano d'Alba, Piobesi d'Alba, Vezza d'Alba et en partie dans les communes Baldissero d'Alba, Castagnito, Castellinaldo, Govone, Guarene, Magliano Alfieri, Montà, Montaldo Roero, Monteu Roero, Monticello d'Alba, Pocapaglia, Priocca, Santa Vittoria d'Alba, Santo Stefano Roero, Sommariva Perno.
 Voir aussi l'article Roero Arneis.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille plus ou moins intense, avec des reflets légèrement ambrés
 odeur : délicat, frais et herbacé
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponible 
